--- a/eng/SOTD_QuestionAudit_chris.xlsx
+++ b/eng/SOTD_QuestionAudit_chris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="18750" windowHeight="12585"/>
+    <workbookView xWindow="-15" yWindow="120" windowWidth="18750" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1557">
   <si>
     <t>Question Number</t>
   </si>
@@ -5437,6 +5437,60 @@
   </si>
   <si>
     <t>11-30-YYYY</t>
+  </si>
+  <si>
+    <t>12-01-YYYY</t>
+  </si>
+  <si>
+    <t>12-02-YYYY</t>
+  </si>
+  <si>
+    <t>12-03-YYYY</t>
+  </si>
+  <si>
+    <t>12-04-YYYY</t>
+  </si>
+  <si>
+    <t>12-05-YYYY</t>
+  </si>
+  <si>
+    <t>12-06-YYYY</t>
+  </si>
+  <si>
+    <t>12-07-YYYY</t>
+  </si>
+  <si>
+    <t>12-08-YYYY</t>
+  </si>
+  <si>
+    <t>12-09-YYYY</t>
+  </si>
+  <si>
+    <t>12-10-YYYY</t>
+  </si>
+  <si>
+    <t>12-11-YYYY</t>
+  </si>
+  <si>
+    <t>12-12-YYYY</t>
+  </si>
+  <si>
+    <t>12-13-YYYY</t>
+  </si>
+  <si>
+    <t>12-14-YYYY</t>
+  </si>
+  <si>
+    <t>12-15-YYYY</t>
+  </si>
+  <si>
+    <t>12-16-YYYY</t>
+  </si>
+  <si>
+    <t>12-17-YYYY</t>
+  </si>
+  <si>
+    <t>12-18-YYYY</t>
   </si>
 </sst>
 </file>
@@ -5617,7 +5671,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5811,6 +5865,18 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6558,8 +6624,8 @@
   <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F246" sqref="F246"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F264" sqref="F264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11220,7 +11286,7 @@
       <c r="A235" s="1">
         <v>316</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="56" t="s">
         <v>859</v>
       </c>
       <c r="C235" s="3" t="s">
@@ -11472,6 +11538,9 @@
       <c r="E247" s="19" t="s">
         <v>791</v>
       </c>
+      <c r="F247" s="62" t="s">
+        <v>1539</v>
+      </c>
     </row>
     <row r="248" spans="1:6" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A248" s="10">
@@ -11489,35 +11558,42 @@
       <c r="E248" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="F248" s="63"/>
-    </row>
-    <row r="249" spans="1:6" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A249" s="10">
+      <c r="F248" s="63" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="59" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A249" s="55">
         <v>320</v>
       </c>
-      <c r="B249" s="11" t="s">
+      <c r="B249" s="56" t="s">
         <v>864</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="C249" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="D249" s="14" t="s">
+      <c r="D249" s="57" t="s">
         <v>1015</v>
       </c>
-      <c r="E249" s="18" t="s">
+      <c r="E249" s="58" t="s">
         <v>783</v>
       </c>
-      <c r="F249" s="63"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="7">
+      <c r="F249" s="68" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="78">
         <v>321</v>
       </c>
-      <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
-      <c r="D250" s="16"/>
-      <c r="E250" s="20" t="s">
+      <c r="B250" s="79"/>
+      <c r="C250" s="79"/>
+      <c r="D250" s="80"/>
+      <c r="E250" s="81" t="s">
         <v>784</v>
+      </c>
+      <c r="F250" s="68" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -11536,6 +11612,9 @@
       <c r="E251" s="19" t="s">
         <v>793</v>
       </c>
+      <c r="F251" s="62" t="s">
+        <v>1543</v>
+      </c>
     </row>
     <row r="252" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
@@ -11553,6 +11632,9 @@
       <c r="E252" s="19" t="s">
         <v>785</v>
       </c>
+      <c r="F252" s="62" t="s">
+        <v>1544</v>
+      </c>
     </row>
     <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
@@ -11570,6 +11652,9 @@
       <c r="E253" s="19" t="s">
         <v>786</v>
       </c>
+      <c r="F253" s="62" t="s">
+        <v>1545</v>
+      </c>
     </row>
     <row r="254" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="10">
@@ -11587,7 +11672,9 @@
       <c r="E254" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="F254" s="63"/>
+      <c r="F254" s="63" t="s">
+        <v>1546</v>
+      </c>
     </row>
     <row r="255" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
@@ -11605,6 +11692,9 @@
       <c r="E255" s="19" t="s">
         <v>788</v>
       </c>
+      <c r="F255" s="62" t="s">
+        <v>1547</v>
+      </c>
     </row>
     <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
@@ -11622,6 +11712,9 @@
       <c r="E256" s="19" t="s">
         <v>478</v>
       </c>
+      <c r="F256" s="62" t="s">
+        <v>1548</v>
+      </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
@@ -11639,6 +11732,9 @@
       <c r="E257" s="19" t="s">
         <v>479</v>
       </c>
+      <c r="F257" s="62" t="s">
+        <v>1549</v>
+      </c>
     </row>
     <row r="258" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
@@ -11656,6 +11752,9 @@
       <c r="E258" s="19" t="s">
         <v>482</v>
       </c>
+      <c r="F258" s="62" t="s">
+        <v>1550</v>
+      </c>
     </row>
     <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
@@ -11673,6 +11772,9 @@
       <c r="E259" s="19" t="s">
         <v>484</v>
       </c>
+      <c r="F259" s="62" t="s">
+        <v>1551</v>
+      </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
@@ -11690,6 +11792,9 @@
       <c r="E260" s="19" t="s">
         <v>485</v>
       </c>
+      <c r="F260" s="62" t="s">
+        <v>1552</v>
+      </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
@@ -11707,6 +11812,9 @@
       <c r="E261" s="19" t="s">
         <v>489</v>
       </c>
+      <c r="F261" s="62" t="s">
+        <v>1553</v>
+      </c>
     </row>
     <row r="262" spans="1:6" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
@@ -11724,6 +11832,9 @@
       <c r="E262" s="19" t="s">
         <v>490</v>
       </c>
+      <c r="F262" s="62" t="s">
+        <v>1554</v>
+      </c>
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
@@ -11741,6 +11852,9 @@
       <c r="E263" s="19" t="s">
         <v>494</v>
       </c>
+      <c r="F263" s="62" t="s">
+        <v>1555</v>
+      </c>
     </row>
     <row r="264" spans="1:6" s="12" customFormat="1" ht="62.25" x14ac:dyDescent="0.25">
       <c r="A264" s="10">
@@ -11758,7 +11872,9 @@
       <c r="E264" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="F264" s="63"/>
+      <c r="F264" s="63" t="s">
+        <v>1556</v>
+      </c>
     </row>
     <row r="265" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="10">

--- a/eng/SOTD_QuestionAudit_chris.xlsx
+++ b/eng/SOTD_QuestionAudit_chris.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1575">
   <si>
     <t>Question Number</t>
   </si>
@@ -1472,9 +1473,6 @@
   </si>
   <si>
     <t>Sum08-184/02-5(a)(ii)</t>
-  </si>
-  <si>
-    <t>Sum08-184/02-5(c)</t>
   </si>
   <si>
     <t>Write down all the factors of 22.</t>
@@ -5491,6 +5489,63 @@
   </si>
   <si>
     <t>12-18-YYYY</t>
+  </si>
+  <si>
+    <t>12-19-YYYY</t>
+  </si>
+  <si>
+    <t>12-20-YYYY</t>
+  </si>
+  <si>
+    <t>Sum08-184/02-5©</t>
+  </si>
+  <si>
+    <t>12-21-YYYY</t>
+  </si>
+  <si>
+    <t>12-22-YYYY</t>
+  </si>
+  <si>
+    <t>12-23-YYYY</t>
+  </si>
+  <si>
+    <t>12-24-YYYY</t>
+  </si>
+  <si>
+    <t>12-25-YYYY</t>
+  </si>
+  <si>
+    <t>12-26-YYYY</t>
+  </si>
+  <si>
+    <t>12-28-YYYY'</t>
+  </si>
+  <si>
+    <t>12-27-YYYY</t>
+  </si>
+  <si>
+    <t>12-29-YYYY</t>
+  </si>
+  <si>
+    <t>12-30-YYYY'</t>
+  </si>
+  <si>
+    <t>12-31-YYYY</t>
+  </si>
+  <si>
+    <t>01-01-YYYY</t>
+  </si>
+  <si>
+    <t>01-02-YYYY</t>
+  </si>
+  <si>
+    <t>01-03-YYYY</t>
+  </si>
+  <si>
+    <t>01-05-YYYY</t>
+  </si>
+  <si>
+    <t>01-04-YYYY</t>
   </si>
 </sst>
 </file>
@@ -6624,8 +6679,8 @@
   <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F264" sqref="F264"/>
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6655,7 +6710,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6663,19 +6718,19 @@
         <v>272</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>686</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>687</v>
-      </c>
       <c r="F2" s="62" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6683,19 +6738,19 @@
         <v>277</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>983</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>984</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>700</v>
-      </c>
       <c r="F3" s="62" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6703,19 +6758,19 @@
         <v>273</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>690</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -6723,19 +6778,19 @@
         <v>274</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>693</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6743,19 +6798,19 @@
         <v>275</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>695</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>981</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>696</v>
-      </c>
       <c r="F6" s="63" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6766,16 +6821,16 @@
         <v>181</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>982</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>698</v>
-      </c>
       <c r="F7" s="62" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6783,19 +6838,19 @@
         <v>295</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6803,19 +6858,19 @@
         <v>296</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>752</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6823,19 +6878,19 @@
         <v>297</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>996</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>755</v>
-      </c>
       <c r="F10" s="62" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6843,19 +6898,19 @@
         <v>278</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>703</v>
-      </c>
       <c r="F11" s="62" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -6863,19 +6918,19 @@
         <v>282</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>714</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -6883,19 +6938,19 @@
         <v>283</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -6903,19 +6958,19 @@
         <v>284</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>719</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>720</v>
-      </c>
       <c r="F14" s="62" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6923,19 +6978,19 @@
         <v>279</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>989</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>705</v>
-      </c>
       <c r="F15" s="62" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6943,19 +6998,19 @@
         <v>280</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>708</v>
-      </c>
       <c r="D16" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F16" s="62" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6963,19 +7018,19 @@
         <v>281</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>990</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>711</v>
-      </c>
       <c r="F17" s="63" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
@@ -6989,13 +7044,13 @@
         <v>68</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -7009,13 +7064,13 @@
         <v>71</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>72</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7023,19 +7078,19 @@
         <v>285</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>991</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>723</v>
-      </c>
       <c r="F20" s="62" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7046,16 +7101,16 @@
         <v>181</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -7063,19 +7118,19 @@
         <v>287</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>993</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>728</v>
-      </c>
       <c r="F22" s="62" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7083,19 +7138,19 @@
         <v>289</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>997</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>733</v>
-      </c>
       <c r="F23" s="63" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7103,19 +7158,19 @@
         <v>290</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>736</v>
-      </c>
       <c r="D24" s="13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7123,19 +7178,19 @@
         <v>252</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>634</v>
-      </c>
       <c r="D25" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7143,19 +7198,19 @@
         <v>253</v>
       </c>
       <c r="B26" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="D26" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>758</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>637</v>
-      </c>
       <c r="F26" s="64" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7163,19 +7218,19 @@
         <v>262</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7183,19 +7238,19 @@
         <v>263</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>661</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>662</v>
       </c>
       <c r="D28" s="45">
         <v>128</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -7203,19 +7258,19 @@
         <v>264</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>666</v>
-      </c>
       <c r="F29" s="63" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -7223,19 +7278,19 @@
         <v>254</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>640</v>
-      </c>
       <c r="F30" s="65" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7243,16 +7298,16 @@
         <v>255</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>641</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7260,19 +7315,19 @@
         <v>256</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>645</v>
-      </c>
       <c r="D32" s="13" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F32" s="62" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7280,19 +7335,19 @@
         <v>257</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>240</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7300,19 +7355,19 @@
         <v>258</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="D34" s="13" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F34" s="62" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7323,16 +7378,16 @@
         <v>431</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F35" s="62" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7340,19 +7395,19 @@
         <v>260</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F36" s="62" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7360,19 +7415,19 @@
         <v>261</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>658</v>
-      </c>
       <c r="D37" s="14" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F37" s="63" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7380,19 +7435,19 @@
         <v>271</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>683</v>
       </c>
       <c r="D38" s="27">
         <v>5.62</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F38" s="62" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7400,19 +7455,19 @@
         <v>265</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>668</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>669</v>
-      </c>
       <c r="F39" s="62" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -7420,19 +7475,19 @@
         <v>266</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>1074</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>1075</v>
-      </c>
       <c r="E40" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F40" s="62" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -7440,19 +7495,19 @@
         <v>267</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>673</v>
-      </c>
       <c r="F41" s="63" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7463,16 +7518,16 @@
         <v>220</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>676</v>
-      </c>
       <c r="F42" s="62" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7480,19 +7535,19 @@
         <v>269</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7500,19 +7555,19 @@
         <v>270</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D44" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>680</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>681</v>
-      </c>
       <c r="F44" s="63" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7520,19 +7575,19 @@
         <v>288</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>731</v>
-      </c>
       <c r="D45" s="14" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F45" s="63" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -7540,19 +7595,19 @@
         <v>291</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>739</v>
-      </c>
       <c r="D46" s="14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F46" s="63" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7563,16 +7618,16 @@
         <v>73</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E47" s="35" t="s">
         <v>74</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -7586,7 +7641,7 @@
         <v>77</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>76</v>
@@ -7604,13 +7659,13 @@
         <v>89</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>90</v>
       </c>
       <c r="F49" s="62" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7624,13 +7679,13 @@
         <v>92</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F50" s="62" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7644,13 +7699,13 @@
         <v>95</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>96</v>
       </c>
       <c r="F51" s="62" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7670,7 +7725,7 @@
         <v>98</v>
       </c>
       <c r="F52" s="62" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7684,13 +7739,13 @@
         <v>100</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>101</v>
       </c>
       <c r="F53" s="63" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7710,7 +7765,7 @@
         <v>80</v>
       </c>
       <c r="F54" s="63" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7730,7 +7785,7 @@
         <v>82</v>
       </c>
       <c r="F55" s="63" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7744,13 +7799,13 @@
         <v>103</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F56" s="62" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7764,13 +7819,13 @@
         <v>84</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>85</v>
       </c>
       <c r="F57" s="62" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7784,13 +7839,13 @@
         <v>87</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>88</v>
       </c>
       <c r="F58" s="63" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7804,13 +7859,13 @@
         <v>48</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>106</v>
       </c>
       <c r="F59" s="62" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7824,13 +7879,13 @@
         <v>48</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>107</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7844,13 +7899,13 @@
         <v>110</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>111</v>
       </c>
       <c r="F61" s="62" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -7861,16 +7916,16 @@
         <v>112</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>113</v>
       </c>
       <c r="F62" s="63" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7878,19 +7933,19 @@
         <v>292</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F63" s="62" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7904,13 +7959,13 @@
         <v>114</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>116</v>
       </c>
       <c r="F64" s="63" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7930,7 +7985,7 @@
         <v>159</v>
       </c>
       <c r="F65" s="62" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7950,7 +8005,7 @@
         <v>160</v>
       </c>
       <c r="F66" s="62" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -7970,7 +8025,7 @@
         <v>161</v>
       </c>
       <c r="F67" s="62" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7978,19 +8033,19 @@
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>164</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>165</v>
       </c>
       <c r="F68" s="62" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -8004,13 +8059,13 @@
         <v>164</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>167</v>
       </c>
       <c r="F69" s="62" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8024,13 +8079,13 @@
         <v>118</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>143</v>
       </c>
       <c r="F70" s="63" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8044,13 +8099,13 @@
         <v>121</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>119</v>
       </c>
       <c r="F71" s="63" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8064,13 +8119,13 @@
         <v>123</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>124</v>
       </c>
       <c r="F72" s="63" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8084,13 +8139,13 @@
         <v>126</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>127</v>
       </c>
       <c r="F73" s="63" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -8104,13 +8159,13 @@
         <v>128</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>129</v>
       </c>
       <c r="F74" s="62" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8124,13 +8179,13 @@
         <v>131</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>132</v>
       </c>
       <c r="F75" s="62" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8144,13 +8199,13 @@
         <v>134</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>135</v>
       </c>
       <c r="F76" s="63" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8164,13 +8219,13 @@
         <v>138</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>136</v>
       </c>
       <c r="F77" s="63" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8184,13 +8239,13 @@
         <v>138</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>139</v>
       </c>
       <c r="F78" s="63" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -8204,13 +8259,13 @@
         <v>142</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>144</v>
       </c>
       <c r="F79" s="63" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8224,13 +8279,13 @@
         <v>146</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>147</v>
       </c>
       <c r="F80" s="63" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8244,13 +8299,13 @@
         <v>152</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>148</v>
       </c>
       <c r="F81" s="62" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8264,13 +8319,13 @@
         <v>151</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>150</v>
       </c>
       <c r="F82" s="62" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8281,16 +8336,16 @@
         <v>153</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>1108</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>1109</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>154</v>
       </c>
       <c r="F83" s="62" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -8298,19 +8353,19 @@
         <v>293</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>743</v>
       </c>
-      <c r="D84" s="14" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>744</v>
-      </c>
       <c r="F84" s="63" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8324,13 +8379,13 @@
         <v>178</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F85" s="62" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -8344,13 +8399,13 @@
         <v>163</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>180</v>
       </c>
       <c r="F86" s="62" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -8364,13 +8419,13 @@
         <v>183</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>182</v>
       </c>
       <c r="F87" s="62" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -8390,7 +8445,7 @@
         <v>168</v>
       </c>
       <c r="F88" s="62" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8410,7 +8465,7 @@
         <v>170</v>
       </c>
       <c r="F89" s="62" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8424,13 +8479,13 @@
         <v>175</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>176</v>
       </c>
       <c r="F90" s="63" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8444,13 +8499,13 @@
         <v>200</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>201</v>
       </c>
       <c r="F91" s="63" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8464,13 +8519,13 @@
         <v>203</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>204</v>
       </c>
       <c r="F92" s="62" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -8484,13 +8539,13 @@
         <v>164</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>205</v>
       </c>
       <c r="F93" s="62" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8504,13 +8559,13 @@
         <v>208</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>209</v>
       </c>
       <c r="F94" s="63" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8530,7 +8585,7 @@
         <v>211</v>
       </c>
       <c r="F95" s="62" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -8544,13 +8599,13 @@
         <v>185</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>186</v>
       </c>
       <c r="F96" s="62" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -8564,13 +8619,13 @@
         <v>213</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>214</v>
       </c>
       <c r="F97" s="63" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -8584,13 +8639,13 @@
         <v>188</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>189</v>
       </c>
       <c r="F98" s="63" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -8604,13 +8659,13 @@
         <v>190</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>192</v>
       </c>
       <c r="F99" s="62" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -8624,7 +8679,7 @@
         <v>195</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>193</v>
@@ -8642,13 +8697,13 @@
         <v>197</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>198</v>
       </c>
       <c r="F101" s="60" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
@@ -8662,13 +8717,13 @@
         <v>216</v>
       </c>
       <c r="D102" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>215</v>
       </c>
       <c r="F102" s="60" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -8682,13 +8737,13 @@
         <v>163</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>218</v>
       </c>
       <c r="F103" s="62" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -8702,13 +8757,13 @@
         <v>163</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>219</v>
       </c>
       <c r="F104" s="62" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8722,13 +8777,13 @@
         <v>163</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>221</v>
       </c>
       <c r="F105" s="62" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -8742,13 +8797,13 @@
         <v>163</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>222</v>
       </c>
       <c r="F106" s="62" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8768,7 +8823,7 @@
         <v>223</v>
       </c>
       <c r="F107" s="62" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -8782,13 +8837,13 @@
         <v>225</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>226</v>
       </c>
       <c r="F108" s="62" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8802,13 +8857,13 @@
         <v>163</v>
       </c>
       <c r="D109" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>228</v>
       </c>
       <c r="F109" s="62" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8822,13 +8877,13 @@
         <v>230</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>231</v>
       </c>
       <c r="F110" s="62" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -8842,13 +8897,13 @@
         <v>174</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>256</v>
       </c>
       <c r="F111" s="63" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8862,13 +8917,13 @@
         <v>163</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>258</v>
       </c>
       <c r="F112" s="62" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -8882,13 +8937,13 @@
         <v>48</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>260</v>
       </c>
       <c r="F113" s="62" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8902,13 +8957,13 @@
         <v>233</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E114" s="18" t="s">
         <v>234</v>
       </c>
       <c r="F114" s="63" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8922,13 +8977,13 @@
         <v>236</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E115" s="18" t="s">
         <v>237</v>
       </c>
       <c r="F115" s="63" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -8942,13 +8997,13 @@
         <v>240</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>238</v>
       </c>
       <c r="F116" s="63" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -8962,13 +9017,13 @@
         <v>242</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>243</v>
       </c>
       <c r="F117" s="62" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8982,13 +9037,13 @@
         <v>248</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>244</v>
       </c>
       <c r="F118" s="62" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9002,13 +9057,13 @@
         <v>249</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>245</v>
       </c>
       <c r="F119" s="62" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9022,13 +9077,13 @@
         <v>252</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E120" s="18" t="s">
         <v>246</v>
       </c>
       <c r="F120" s="63" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9042,13 +9097,13 @@
         <v>253</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>254</v>
       </c>
       <c r="F121" s="62" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -9062,13 +9117,13 @@
         <v>264</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>261</v>
       </c>
       <c r="F122" s="62" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9082,13 +9137,13 @@
         <v>265</v>
       </c>
       <c r="D123" s="41" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>262</v>
       </c>
       <c r="F123" s="62" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -9108,7 +9163,7 @@
         <v>269</v>
       </c>
       <c r="F124" s="63" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9128,7 +9183,7 @@
         <v>270</v>
       </c>
       <c r="F125" s="62" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -9139,16 +9194,16 @@
         <v>4</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D126" s="34" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E126" s="35" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="64" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9159,16 +9214,16 @@
         <v>5</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E127" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F127" s="63" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -9182,13 +9237,13 @@
         <v>7</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E128" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F128" s="62" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9202,13 +9257,13 @@
         <v>9</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E129" s="19" t="s">
         <v>28</v>
       </c>
       <c r="F129" s="62" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9222,13 +9277,13 @@
         <v>11</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>29</v>
       </c>
       <c r="F130" s="62" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -9242,13 +9297,13 @@
         <v>13</v>
       </c>
       <c r="D131" s="42" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E131" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F131" s="62" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -9262,13 +9317,13 @@
         <v>15</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E132" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F132" s="62" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9282,13 +9337,13 @@
         <v>17</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E133" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F133" s="62" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -9302,13 +9357,13 @@
         <v>18</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E134" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F134" s="62" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9322,13 +9377,13 @@
         <v>21</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E135" s="19" t="s">
         <v>34</v>
       </c>
       <c r="F135" s="62" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9342,13 +9397,13 @@
         <v>23</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E136" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F136" s="63" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -9362,13 +9417,13 @@
         <v>37</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E137" s="19" t="s">
         <v>38</v>
       </c>
       <c r="F137" s="62" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -9382,13 +9437,13 @@
         <v>39</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E138" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F138" s="62" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9402,13 +9457,13 @@
         <v>42</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E139" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F139" s="62" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -9422,13 +9477,13 @@
         <v>46</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E140" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F140" s="62" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -9442,13 +9497,13 @@
         <v>48</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E141" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F141" s="62" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9459,16 +9514,16 @@
         <v>50</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E142" s="18" t="s">
         <v>51</v>
       </c>
       <c r="F142" s="63" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -9482,13 +9537,13 @@
         <v>53</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E143" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F143" s="63" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -9502,13 +9557,13 @@
         <v>56</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E144" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F144" s="62" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="32.25" x14ac:dyDescent="0.25">
@@ -9522,13 +9577,13 @@
         <v>59</v>
       </c>
       <c r="D145" s="41" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E145" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F145" s="62" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -9542,13 +9597,13 @@
         <v>62</v>
       </c>
       <c r="D146" s="40" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E146" s="19" t="s">
         <v>63</v>
       </c>
       <c r="F146" s="62" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -9562,13 +9617,13 @@
         <v>65</v>
       </c>
       <c r="D147" s="39" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E147" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F147" s="62" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9576,19 +9631,19 @@
         <v>294</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>746</v>
       </c>
       <c r="D148" s="13">
         <v>5</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F148" s="62" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -9602,13 +9657,13 @@
         <v>296</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E149" s="18" t="s">
         <v>297</v>
       </c>
       <c r="F149" s="63" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -9622,13 +9677,13 @@
         <v>298</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E150" s="18" t="s">
         <v>299</v>
       </c>
       <c r="F150" s="63" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -9642,13 +9697,13 @@
         <v>298</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E151" s="18" t="s">
         <v>301</v>
       </c>
       <c r="F151" s="63" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -9662,13 +9717,13 @@
         <v>48</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E152" s="19" t="s">
         <v>272</v>
       </c>
       <c r="F152" s="62" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9682,13 +9737,13 @@
         <v>48</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E153" s="19" t="s">
         <v>275</v>
       </c>
       <c r="F153" s="62" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -9708,7 +9763,7 @@
         <v>277</v>
       </c>
       <c r="F154" s="62" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -9728,7 +9783,7 @@
         <v>279</v>
       </c>
       <c r="F155" s="62" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9742,13 +9797,13 @@
         <v>282</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E156" s="18" t="s">
         <v>283</v>
       </c>
       <c r="F156" s="63" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9762,13 +9817,13 @@
         <v>282</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E157" s="18" t="s">
         <v>284</v>
       </c>
       <c r="F157" s="63" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -9782,13 +9837,13 @@
         <v>287</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E158" s="18" t="s">
         <v>288</v>
       </c>
       <c r="F158" s="63" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -9802,13 +9857,13 @@
         <v>289</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E159" s="19" t="s">
         <v>291</v>
       </c>
       <c r="F159" s="62" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -9822,13 +9877,13 @@
         <v>292</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E160" s="18" t="s">
         <v>294</v>
       </c>
       <c r="F160" s="63" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -9842,13 +9897,13 @@
         <v>163</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E161" s="19" t="s">
         <v>303</v>
       </c>
       <c r="F161" s="62" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9862,13 +9917,13 @@
         <v>163</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E162" s="19" t="s">
         <v>305</v>
       </c>
       <c r="F162" s="62" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -9888,7 +9943,7 @@
         <v>307</v>
       </c>
       <c r="F163" s="62" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -9902,13 +9957,13 @@
         <v>48</v>
       </c>
       <c r="D164" s="57" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E164" s="58" t="s">
         <v>311</v>
       </c>
       <c r="F164" s="68" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -9922,13 +9977,13 @@
         <v>310</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E165" s="18" t="s">
         <v>312</v>
       </c>
       <c r="F165" s="63" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9942,13 +9997,13 @@
         <v>163</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E166" s="19" t="s">
         <v>313</v>
       </c>
       <c r="F166" s="62" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -9962,13 +10017,13 @@
         <v>163</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E167" s="19" t="s">
         <v>314</v>
       </c>
       <c r="F167" s="62" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -9982,13 +10037,13 @@
         <v>381</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>316</v>
       </c>
       <c r="F168" s="63" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -10002,13 +10057,13 @@
         <v>163</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E169" s="19" t="s">
         <v>317</v>
       </c>
       <c r="F169" s="62" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -10022,13 +10077,13 @@
         <v>163</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E170" s="19" t="s">
         <v>318</v>
       </c>
       <c r="F170" s="62" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -10042,13 +10097,13 @@
         <v>320</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>321</v>
       </c>
       <c r="F171" s="63" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -10062,13 +10117,13 @@
         <v>163</v>
       </c>
       <c r="D172" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E172" s="19" t="s">
         <v>323</v>
       </c>
       <c r="F172" s="62" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -10088,7 +10143,7 @@
         <v>326</v>
       </c>
       <c r="F173" s="62" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10102,13 +10157,13 @@
         <v>328</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E174" s="19" t="s">
         <v>329</v>
       </c>
       <c r="F174" s="62" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10128,7 +10183,7 @@
         <v>343</v>
       </c>
       <c r="F175" s="62" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10142,13 +10197,13 @@
         <v>346</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E176" s="19" t="s">
         <v>347</v>
       </c>
       <c r="F176" s="62" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="177" spans="1:6" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -10163,10 +10218,10 @@
       </c>
       <c r="D177" s="23"/>
       <c r="E177" s="43" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F177" s="66" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -10180,13 +10235,13 @@
         <v>333</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E178" s="18" t="s">
         <v>334</v>
       </c>
       <c r="F178" s="63" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="179" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -10200,13 +10255,13 @@
         <v>337</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E179" s="18" t="s">
         <v>336</v>
       </c>
       <c r="F179" s="63" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10220,13 +10275,13 @@
         <v>131</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E180" s="19" t="s">
         <v>338</v>
       </c>
       <c r="F180" s="62" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -10240,13 +10295,13 @@
         <v>163</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E181" s="19" t="s">
         <v>339</v>
       </c>
       <c r="F181" s="62" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -10266,7 +10321,7 @@
         <v>342</v>
       </c>
       <c r="F182" s="62" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -10280,13 +10335,13 @@
         <v>380</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E183" s="19" t="s">
         <v>349</v>
       </c>
       <c r="F183" s="62" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -10300,13 +10355,13 @@
         <v>164</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E184" s="19" t="s">
         <v>352</v>
       </c>
       <c r="F184" s="62" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -10320,13 +10375,13 @@
         <v>353</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E185" s="19" t="s">
         <v>354</v>
       </c>
       <c r="F185" s="62" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10340,13 +10395,13 @@
         <v>356</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E186" s="19" t="s">
         <v>357</v>
       </c>
       <c r="F186" s="62" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10366,7 +10421,7 @@
         <v>359</v>
       </c>
       <c r="F187" s="62" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10380,13 +10435,13 @@
         <v>378</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E188" s="19" t="s">
         <v>348</v>
       </c>
       <c r="F188" s="62" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -10400,13 +10455,13 @@
         <v>163</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E189" s="19" t="s">
         <v>361</v>
       </c>
       <c r="F189" s="62" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -10420,13 +10475,13 @@
         <v>363</v>
       </c>
       <c r="D190" s="40" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E190" s="19" t="s">
         <v>364</v>
       </c>
       <c r="F190" s="62" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -10440,13 +10495,13 @@
         <v>366</v>
       </c>
       <c r="D191" s="39" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E191" s="19" t="s">
         <v>367</v>
       </c>
       <c r="F191" s="62" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -10460,13 +10515,13 @@
         <v>368</v>
       </c>
       <c r="D192" s="40" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E192" s="19" t="s">
         <v>369</v>
       </c>
       <c r="F192" s="62" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -10480,13 +10535,13 @@
         <v>163</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E193" s="19" t="s">
         <v>370</v>
       </c>
       <c r="F193" s="62" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -10500,13 +10555,13 @@
         <v>163</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E194" s="19" t="s">
         <v>377</v>
       </c>
       <c r="F194" s="62" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -10520,13 +10575,13 @@
         <v>372</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E195" s="18" t="s">
         <v>373</v>
       </c>
       <c r="F195" s="63" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10546,7 +10601,7 @@
         <v>376</v>
       </c>
       <c r="F196" s="62" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
@@ -10560,13 +10615,13 @@
         <v>388</v>
       </c>
       <c r="D197" s="39" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E197" s="19" t="s">
         <v>389</v>
       </c>
       <c r="F197" s="62" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10580,13 +10635,13 @@
         <v>163</v>
       </c>
       <c r="D198" s="50" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>390</v>
       </c>
       <c r="F198" s="67" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -10600,13 +10655,13 @@
         <v>392</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E199" s="18" t="s">
         <v>393</v>
       </c>
       <c r="F199" s="63" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -10626,7 +10681,7 @@
         <v>394</v>
       </c>
       <c r="F200" s="63" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
@@ -10640,13 +10695,13 @@
         <v>382</v>
       </c>
       <c r="D201" s="41" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E201" s="19" t="s">
         <v>383</v>
       </c>
       <c r="F201" s="62" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -10660,13 +10715,13 @@
         <v>386</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E202" s="19" t="s">
         <v>385</v>
       </c>
       <c r="F202" s="62" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -10674,17 +10729,17 @@
         <v>298</v>
       </c>
       <c r="B203" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="C203" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="D203" s="14"/>
       <c r="E203" s="18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F203" s="63" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -10692,17 +10747,17 @@
         <v>299</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D204" s="14"/>
       <c r="E204" s="18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F204" s="63" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -10710,17 +10765,17 @@
         <v>308</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D205" s="14"/>
       <c r="E205" s="18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F205" s="63" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10728,16 +10783,16 @@
         <v>300</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E206" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F206" s="62" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10745,16 +10800,16 @@
         <v>301</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E207" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F207" s="62" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -10762,16 +10817,16 @@
         <v>302</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="C208" s="3" t="s">
-        <v>837</v>
-      </c>
       <c r="E208" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F208" s="62" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -10779,17 +10834,17 @@
         <v>303</v>
       </c>
       <c r="B209" s="72" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C209" s="72" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D209" s="73"/>
       <c r="E209" s="74" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F209" s="75" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -10797,17 +10852,17 @@
         <v>304</v>
       </c>
       <c r="B210" s="72" t="s">
+        <v>839</v>
+      </c>
+      <c r="C210" s="72" t="s">
         <v>840</v>
-      </c>
-      <c r="C210" s="72" t="s">
-        <v>841</v>
       </c>
       <c r="D210" s="73"/>
       <c r="E210" s="74" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F210" s="75" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="76" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -10815,17 +10870,17 @@
         <v>305</v>
       </c>
       <c r="B211" s="72" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C211" s="72" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D211" s="73"/>
       <c r="E211" s="74" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F211" s="75" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -10833,16 +10888,16 @@
         <v>306</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>843</v>
-      </c>
       <c r="E212" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F212" s="62" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -10850,16 +10905,16 @@
         <v>307</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E213" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F213" s="62" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -10873,13 +10928,13 @@
         <v>429</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E214" s="19" t="s">
         <v>427</v>
       </c>
       <c r="F214" s="62" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10893,13 +10948,13 @@
         <v>432</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E215" s="19" t="s">
         <v>430</v>
       </c>
       <c r="F215" s="62" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10919,7 +10974,7 @@
         <v>399</v>
       </c>
       <c r="F216" s="62" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -10933,13 +10988,13 @@
         <v>48</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E217" s="19" t="s">
         <v>401</v>
       </c>
       <c r="F217" s="62" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10953,13 +11008,13 @@
         <v>48</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E218" s="19" t="s">
         <v>403</v>
       </c>
       <c r="F218" s="62" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -10979,7 +11034,7 @@
         <v>405</v>
       </c>
       <c r="F219" s="62" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -10999,7 +11054,7 @@
         <v>407</v>
       </c>
       <c r="F220" s="62" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -11013,13 +11068,13 @@
         <v>409</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E221" s="18" t="s">
         <v>408</v>
       </c>
       <c r="F221" s="63" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11033,13 +11088,13 @@
         <v>412</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E222" s="18" t="s">
         <v>413</v>
       </c>
       <c r="F222" s="63" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -11053,13 +11108,13 @@
         <v>414</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E223" s="19" t="s">
         <v>416</v>
       </c>
       <c r="F223" s="62" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11073,13 +11128,13 @@
         <v>417</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E224" s="18" t="s">
         <v>419</v>
       </c>
       <c r="F224" s="63" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -11093,13 +11148,13 @@
         <v>48</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E225" s="19" t="s">
         <v>420</v>
       </c>
       <c r="F225" s="62" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -11113,13 +11168,13 @@
         <v>48</v>
       </c>
       <c r="D226" s="13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E226" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F226" s="62" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -11133,13 +11188,13 @@
         <v>425</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E227" s="18" t="s">
         <v>424</v>
       </c>
       <c r="F227" s="63" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -11153,13 +11208,13 @@
         <v>163</v>
       </c>
       <c r="D228" s="40" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E228" s="19" t="s">
         <v>437</v>
       </c>
       <c r="F228" s="62" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -11173,13 +11228,13 @@
         <v>433</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E229" s="19" t="s">
         <v>434</v>
       </c>
       <c r="F229" s="62" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -11193,13 +11248,13 @@
         <v>435</v>
       </c>
       <c r="D230" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E230" s="19" t="s">
         <v>436</v>
       </c>
       <c r="F230" s="62" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11207,19 +11262,19 @@
         <v>310</v>
       </c>
       <c r="B231" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="C231" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="C231" s="11" t="s">
-        <v>851</v>
-      </c>
       <c r="D231" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E231" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F231" s="63" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -11227,19 +11282,19 @@
         <v>311</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="C232" s="3" t="s">
-        <v>854</v>
-      </c>
       <c r="D232" s="13" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E232" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F232" s="62" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -11247,19 +11302,19 @@
         <v>314</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E233" s="18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F233" s="63" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11267,19 +11322,19 @@
         <v>315</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D234" s="13">
         <v>1090</v>
       </c>
       <c r="E234" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F234" s="62" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -11287,19 +11342,19 @@
         <v>316</v>
       </c>
       <c r="B235" s="56" t="s">
+        <v>858</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="C235" s="3" t="s">
-        <v>860</v>
-      </c>
       <c r="D235" s="13" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E235" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F235" s="62" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -11307,19 +11362,19 @@
         <v>317</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C236" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D236" s="13" t="s">
         <v>1007</v>
       </c>
-      <c r="D236" s="13" t="s">
-        <v>1008</v>
-      </c>
       <c r="E236" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F236" s="62" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -11330,16 +11385,16 @@
         <v>220</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D237" s="13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E237" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F237" s="62" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11347,19 +11402,19 @@
         <v>309</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="C238" s="3" t="s">
-        <v>849</v>
-      </c>
       <c r="D238" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F238" s="62" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11373,13 +11428,13 @@
         <v>440</v>
       </c>
       <c r="D239" s="13" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E239" s="19" t="s">
         <v>441</v>
       </c>
       <c r="F239" s="62" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11393,13 +11448,13 @@
         <v>444</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E240" s="19" t="s">
         <v>442</v>
       </c>
       <c r="F240" s="62" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11413,13 +11468,13 @@
         <v>446</v>
       </c>
       <c r="D241" s="13" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E241" s="19" t="s">
         <v>447</v>
       </c>
       <c r="F241" s="62" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11433,13 +11488,13 @@
         <v>48</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E242" s="19" t="s">
         <v>449</v>
       </c>
       <c r="F242" s="62" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="243" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -11453,13 +11508,13 @@
         <v>450</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E243" s="18" t="s">
         <v>451</v>
       </c>
       <c r="F243" s="63" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="244" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11467,19 +11522,19 @@
         <v>319</v>
       </c>
       <c r="B244" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="C244" s="11" t="s">
         <v>862</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>863</v>
       </c>
       <c r="D244" s="77">
         <v>42217</v>
       </c>
       <c r="E244" s="18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F244" s="63" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11487,19 +11542,19 @@
         <v>326</v>
       </c>
       <c r="B245" s="56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C245" s="56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D245" s="57" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E245" s="58" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F245" s="68" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11507,19 +11562,19 @@
         <v>327</v>
       </c>
       <c r="B246" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="C246" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="C246" s="11" t="s">
-        <v>874</v>
-      </c>
       <c r="D246" s="14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E246" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F246" s="63" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11527,19 +11582,19 @@
         <v>328</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D247" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E247" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F247" s="62" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -11547,19 +11602,19 @@
         <v>329</v>
       </c>
       <c r="B248" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C248" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="C248" s="11" t="s">
-        <v>877</v>
-      </c>
       <c r="D248" s="14" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E248" s="18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F248" s="63" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="59" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -11567,19 +11622,19 @@
         <v>320</v>
       </c>
       <c r="B249" s="56" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C249" s="56" t="s">
         <v>240</v>
       </c>
       <c r="D249" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E249" s="58" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F249" s="68" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -11590,10 +11645,10 @@
       <c r="C250" s="79"/>
       <c r="D250" s="80"/>
       <c r="E250" s="81" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F250" s="68" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -11604,16 +11659,16 @@
         <v>220</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E251" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F251" s="62" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -11621,19 +11676,19 @@
         <v>322</v>
       </c>
       <c r="B252" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="C252" s="3" t="s">
-        <v>866</v>
-      </c>
       <c r="D252" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E252" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F252" s="62" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11641,19 +11696,19 @@
         <v>323</v>
       </c>
       <c r="B253" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="C253" s="3" t="s">
-        <v>868</v>
-      </c>
       <c r="D253" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E253" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F253" s="62" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11661,19 +11716,19 @@
         <v>324</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E254" s="18" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F254" s="63" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -11681,19 +11736,19 @@
         <v>325</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D255" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E255" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F255" s="62" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11701,19 +11756,19 @@
         <v>188</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D256" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E256" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F256" s="62" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -11721,7 +11776,7 @@
         <v>189</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>48</v>
@@ -11730,10 +11785,10 @@
         <v>7.75</v>
       </c>
       <c r="E257" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F257" s="62" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -11741,19 +11796,19 @@
         <v>190</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E258" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D258" s="13" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E258" s="19" t="s">
-        <v>482</v>
-      </c>
       <c r="F258" s="62" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11767,13 +11822,13 @@
         <v>131</v>
       </c>
       <c r="D259" s="13" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E259" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F259" s="62" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -11784,16 +11839,16 @@
         <v>438</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D260" s="13" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E260" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F260" s="62" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11801,19 +11856,19 @@
         <v>193</v>
       </c>
       <c r="B261" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E261" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="C261" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E261" s="19" t="s">
-        <v>489</v>
-      </c>
       <c r="F261" s="62" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="32.25" x14ac:dyDescent="0.25">
@@ -11821,19 +11876,19 @@
         <v>194</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C262" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="D262" s="44" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E262" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F262" s="62" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11841,7 +11896,7 @@
         <v>195</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>131</v>
@@ -11850,10 +11905,10 @@
         <v>36.49</v>
       </c>
       <c r="E263" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F263" s="62" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="12" customFormat="1" ht="62.25" x14ac:dyDescent="0.25">
@@ -11867,66 +11922,73 @@
         <v>454</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E264" s="18" t="s">
         <v>455</v>
       </c>
       <c r="F264" s="63" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A265" s="55">
+        <v>180</v>
+      </c>
+      <c r="B265" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="C265" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="D265" s="57">
+        <v>4567</v>
+      </c>
+      <c r="E265" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F265" s="68" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A265" s="10">
-        <v>180</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C265" s="11" t="s">
+    <row r="266" spans="1:6" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" s="55">
+        <v>181</v>
+      </c>
+      <c r="B266" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="C266" s="56" t="s">
         <v>456</v>
       </c>
-      <c r="D265" s="14">
-        <v>4567</v>
-      </c>
-      <c r="E265" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="F265" s="63"/>
-    </row>
-    <row r="266" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="10">
-        <v>181</v>
-      </c>
-      <c r="B266" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C266" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="D266" s="14">
+      <c r="D266" s="57">
         <v>7645</v>
       </c>
-      <c r="E266" s="18" t="s">
+      <c r="E266" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="F266" s="63"/>
+      <c r="F266" s="68" t="s">
+        <v>1557</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>182</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D267" s="13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E267" s="19" t="s">
-        <v>461</v>
+        <v>1558</v>
+      </c>
+      <c r="F267" s="62" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -11934,16 +11996,19 @@
         <v>183</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D268" s="13" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E268" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
+      </c>
+      <c r="F268" s="62" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -11951,130 +12016,144 @@
         <v>184</v>
       </c>
       <c r="B269" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D269" s="14" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E269" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="C269" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D269" s="14" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E269" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F269" s="63"/>
+      <c r="F269" s="63" t="s">
+        <v>1561</v>
+      </c>
     </row>
     <row r="270" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="10">
         <v>185</v>
       </c>
       <c r="B270" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C270" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C270" s="11" t="s">
+      <c r="D270" s="14" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E270" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="D270" s="14" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E270" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="F270" s="63"/>
+      <c r="F270" s="63" t="s">
+        <v>1562</v>
+      </c>
     </row>
     <row r="271" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="10">
         <v>186</v>
       </c>
       <c r="B271" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C271" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C271" s="11" t="s">
-        <v>473</v>
-      </c>
       <c r="D271" s="14" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="F271" s="63"/>
+        <v>470</v>
+      </c>
+      <c r="F271" s="63" t="s">
+        <v>1563</v>
+      </c>
     </row>
     <row r="272" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="10">
         <v>187</v>
       </c>
       <c r="B272" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C272" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="C272" s="11" t="s">
+      <c r="D272" s="14" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E272" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="D272" s="14" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E272" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="F272" s="63"/>
+      <c r="F272" s="63" t="s">
+        <v>1564</v>
+      </c>
     </row>
     <row r="273" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="10">
         <v>333</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E273" s="18" t="s">
-        <v>796</v>
-      </c>
-      <c r="F273" s="63"/>
+        <v>795</v>
+      </c>
+      <c r="F273" s="63" t="s">
+        <v>1566</v>
+      </c>
     </row>
     <row r="274" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="10">
         <v>334</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E274" s="18" t="s">
-        <v>797</v>
-      </c>
-      <c r="F274" s="63"/>
+        <v>796</v>
+      </c>
+      <c r="F274" s="63" t="s">
+        <v>1565</v>
+      </c>
     </row>
     <row r="275" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="10">
         <v>335</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E275" s="18" t="s">
-        <v>798</v>
-      </c>
-      <c r="F275" s="63"/>
+        <v>797</v>
+      </c>
+      <c r="F275" s="63" t="s">
+        <v>1567</v>
+      </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>336</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>48</v>
@@ -12083,7 +12162,10 @@
         <v>7170</v>
       </c>
       <c r="E276" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
+      </c>
+      <c r="F276" s="62" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -12091,7 +12173,7 @@
         <v>337</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>48</v>
@@ -12100,7 +12182,10 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E277" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
+      </c>
+      <c r="F277" s="62" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -12108,68 +12193,77 @@
         <v>338</v>
       </c>
       <c r="B278" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="C278" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="C278" s="11" t="s">
-        <v>887</v>
-      </c>
       <c r="D278" s="14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E278" s="18" t="s">
-        <v>801</v>
-      </c>
-      <c r="F278" s="63"/>
+        <v>800</v>
+      </c>
+      <c r="F278" s="63" t="s">
+        <v>1570</v>
+      </c>
     </row>
     <row r="279" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="10">
         <v>339</v>
       </c>
       <c r="B279" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="C279" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="C279" s="11" t="s">
-        <v>889</v>
-      </c>
       <c r="D279" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E279" s="18" t="s">
-        <v>802</v>
-      </c>
-      <c r="F279" s="63"/>
+        <v>801</v>
+      </c>
+      <c r="F279" s="63" t="s">
+        <v>1571</v>
+      </c>
     </row>
     <row r="280" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A280" s="10">
         <v>340</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E280" s="18" t="s">
-        <v>803</v>
-      </c>
-      <c r="F280" s="63"/>
+        <v>802</v>
+      </c>
+      <c r="F280" s="63" t="s">
+        <v>1572</v>
+      </c>
     </row>
     <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="22">
         <v>341</v>
       </c>
       <c r="B281" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="C281" s="6" t="s">
         <v>892</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>893</v>
       </c>
       <c r="D281" s="23"/>
       <c r="E281" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
+      </c>
+      <c r="F281" s="62" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -12177,16 +12271,19 @@
         <v>342</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D282" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E282" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
+      </c>
+      <c r="F282" s="62" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12197,13 +12294,13 @@
         <v>220</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E283" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12211,16 +12308,16 @@
         <v>344</v>
       </c>
       <c r="B284" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="C284" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="C284" s="11" t="s">
-        <v>898</v>
-      </c>
       <c r="D284" s="14" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E284" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F284" s="63"/>
     </row>
@@ -12229,16 +12326,16 @@
         <v>345</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E285" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F285" s="63"/>
     </row>
@@ -12247,16 +12344,16 @@
         <v>346</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E286" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F286" s="63"/>
     </row>
@@ -12265,16 +12362,16 @@
         <v>347</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D287" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E287" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -12282,12 +12379,12 @@
         <v>331</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="23"/>
       <c r="E288" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="289" spans="1:6" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -12295,16 +12392,16 @@
         <v>348</v>
       </c>
       <c r="B289" s="33" t="s">
+        <v>901</v>
+      </c>
+      <c r="C289" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="C289" s="33" t="s">
-        <v>903</v>
-      </c>
       <c r="D289" s="37" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E289" s="35" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F289" s="64"/>
     </row>
@@ -12313,16 +12410,16 @@
         <v>332</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D290" s="13">
         <v>24</v>
       </c>
       <c r="E290" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -12330,16 +12427,16 @@
         <v>196</v>
       </c>
       <c r="B291" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C291" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="C291" s="11" t="s">
-        <v>497</v>
-      </c>
       <c r="D291" s="14" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E291" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F291" s="63"/>
     </row>
@@ -12348,16 +12445,16 @@
         <v>199</v>
       </c>
       <c r="B292" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C292" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="C292" s="11" t="s">
+      <c r="D292" s="14" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E292" s="18" t="s">
         <v>504</v>
-      </c>
-      <c r="D292" s="14" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E292" s="18" t="s">
-        <v>505</v>
       </c>
       <c r="F292" s="63"/>
     </row>
@@ -12366,16 +12463,16 @@
         <v>200</v>
       </c>
       <c r="B293" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C293" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="C293" s="11" t="s">
+      <c r="D293" s="14" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E293" s="18" t="s">
         <v>507</v>
-      </c>
-      <c r="D293" s="14" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E293" s="18" t="s">
-        <v>508</v>
       </c>
       <c r="F293" s="63"/>
     </row>
@@ -12387,13 +12484,13 @@
         <v>83</v>
       </c>
       <c r="C294" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D294" s="13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E294" s="19" t="s">
         <v>509</v>
-      </c>
-      <c r="D294" s="13" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E294" s="19" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -12401,16 +12498,16 @@
         <v>197</v>
       </c>
       <c r="B295" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C295" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="D295" s="57" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E295" s="58" t="s">
         <v>498</v>
-      </c>
-      <c r="C295" s="56" t="s">
-        <v>500</v>
-      </c>
-      <c r="D295" s="57" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E295" s="58" t="s">
-        <v>499</v>
       </c>
       <c r="F295" s="68"/>
     </row>
@@ -12419,16 +12516,16 @@
         <v>198</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D296" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E296" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12436,16 +12533,16 @@
         <v>351</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="C297" s="3" t="s">
-        <v>909</v>
-      </c>
       <c r="D297" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E297" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="298" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -12453,16 +12550,16 @@
         <v>352</v>
       </c>
       <c r="B298" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="C298" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="C298" s="11" t="s">
-        <v>911</v>
-      </c>
       <c r="D298" s="14" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E298" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F298" s="63"/>
     </row>
@@ -12471,16 +12568,16 @@
         <v>353</v>
       </c>
       <c r="B299" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="C299" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="C299" s="11" t="s">
-        <v>913</v>
-      </c>
       <c r="D299" s="14" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E299" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F299" s="63"/>
     </row>
@@ -12489,16 +12586,16 @@
         <v>354</v>
       </c>
       <c r="B300" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="C300" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="C300" s="11" t="s">
-        <v>915</v>
-      </c>
       <c r="D300" s="14" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E300" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F300" s="63"/>
     </row>
@@ -12507,16 +12604,16 @@
         <v>355</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E301" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F301" s="63"/>
     </row>
@@ -12525,16 +12622,16 @@
         <v>356</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E302" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F302" s="63"/>
     </row>
@@ -12543,14 +12640,14 @@
         <v>357</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D303" s="23"/>
       <c r="E303" s="24" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F303" s="66"/>
     </row>
@@ -12562,13 +12659,13 @@
         <v>181</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D304" s="13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E304" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -12579,13 +12676,13 @@
         <v>220</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D305" s="13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E305" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -12593,16 +12690,16 @@
         <v>349</v>
       </c>
       <c r="B306" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="C306" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="C306" s="11" t="s">
-        <v>905</v>
-      </c>
       <c r="D306" s="14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E306" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F306" s="63"/>
     </row>
@@ -12611,16 +12708,16 @@
         <v>350</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E307" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -12634,10 +12731,10 @@
         <v>163</v>
       </c>
       <c r="D308" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E308" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12645,16 +12742,16 @@
         <v>205</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D309" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E309" s="19" t="s">
         <v>519</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D309" s="13" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E309" s="19" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -12662,16 +12759,16 @@
         <v>206</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E310" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12679,16 +12776,16 @@
         <v>207</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D311" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E311" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="312" spans="1:6" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12696,7 +12793,7 @@
         <v>208</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>163</v>
@@ -12705,7 +12802,7 @@
         <v>8.1</v>
       </c>
       <c r="E312" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F312" s="62"/>
     </row>
@@ -12714,16 +12811,16 @@
         <v>202</v>
       </c>
       <c r="B313" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="C313" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="C313" s="33" t="s">
+      <c r="D313" s="34" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E313" s="35" t="s">
         <v>512</v>
-      </c>
-      <c r="D313" s="34" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E313" s="35" t="s">
-        <v>513</v>
       </c>
       <c r="F313" s="64"/>
     </row>
@@ -12732,16 +12829,16 @@
         <v>203</v>
       </c>
       <c r="B314" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C314" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C314" s="11" t="s">
+      <c r="D314" s="14" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E314" s="18" t="s">
         <v>515</v>
-      </c>
-      <c r="D314" s="14" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E314" s="18" t="s">
-        <v>516</v>
       </c>
       <c r="F314" s="63"/>
     </row>
@@ -12756,10 +12853,10 @@
         <v>163</v>
       </c>
       <c r="D315" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E315" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -12773,10 +12870,10 @@
         <v>163</v>
       </c>
       <c r="D316" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E316" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12784,16 +12881,16 @@
         <v>363</v>
       </c>
       <c r="B317" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>925</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>926</v>
       </c>
       <c r="D317" s="13">
         <v>432.4</v>
       </c>
       <c r="E317" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12801,16 +12898,16 @@
         <v>364</v>
       </c>
       <c r="B318" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>928</v>
       </c>
       <c r="D318" s="13">
         <v>4324</v>
       </c>
       <c r="E318" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12818,16 +12915,16 @@
         <v>365</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D319" s="13">
         <v>92</v>
       </c>
       <c r="E319" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -12835,16 +12932,16 @@
         <v>312</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D320" s="13">
         <v>24.16</v>
       </c>
       <c r="E320" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="321" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12852,16 +12949,16 @@
         <v>313</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D321" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E321" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F321" s="62"/>
     </row>
@@ -12870,16 +12967,16 @@
         <v>366</v>
       </c>
       <c r="B322" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="D322" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E322" s="18" t="s">
         <v>936</v>
-      </c>
-      <c r="C322" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="D322" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E322" s="18" t="s">
-        <v>937</v>
       </c>
       <c r="F322" s="63"/>
     </row>
@@ -12891,13 +12988,13 @@
         <v>220</v>
       </c>
       <c r="C323" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="D323" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E323" s="19" t="s">
         <v>938</v>
-      </c>
-      <c r="D323" s="13" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E323" s="19" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12905,16 +13002,16 @@
         <v>360</v>
       </c>
       <c r="B324" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="C324" s="3" t="s">
-        <v>921</v>
-      </c>
       <c r="D324" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E324" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="325" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12922,16 +13019,16 @@
         <v>361</v>
       </c>
       <c r="B325" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="C325" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="C325" s="11" t="s">
-        <v>923</v>
-      </c>
       <c r="D325" s="14" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E325" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F325" s="63"/>
     </row>
@@ -12940,16 +13037,16 @@
         <v>362</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D326" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E326" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12957,16 +13054,16 @@
         <v>372</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C327" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D327" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E327" s="19" t="s">
         <v>952</v>
-      </c>
-      <c r="D327" s="13" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E327" s="19" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="328" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -12974,16 +13071,16 @@
         <v>373</v>
       </c>
       <c r="B328" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="C328" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="C328" s="11" t="s">
-        <v>956</v>
-      </c>
       <c r="D328" s="14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E328" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F328" s="63"/>
     </row>
@@ -12992,16 +13089,16 @@
         <v>374</v>
       </c>
       <c r="B329" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="C329" s="11" t="s">
         <v>957</v>
       </c>
-      <c r="C329" s="11" t="s">
+      <c r="D329" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E329" s="18" t="s">
         <v>958</v>
-      </c>
-      <c r="D329" s="14" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E329" s="18" t="s">
-        <v>959</v>
       </c>
       <c r="F329" s="63"/>
     </row>
@@ -13010,16 +13107,16 @@
         <v>375</v>
       </c>
       <c r="B330" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="C330" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="C330" s="11" t="s">
+      <c r="D330" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E330" s="18" t="s">
         <v>961</v>
-      </c>
-      <c r="D330" s="14" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E330" s="18" t="s">
-        <v>962</v>
       </c>
       <c r="F330" s="63"/>
     </row>
@@ -13028,16 +13125,16 @@
         <v>376</v>
       </c>
       <c r="B331" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="C331" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C331" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="D331" s="14" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E331" s="18" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F331" s="63"/>
     </row>
@@ -13046,16 +13143,16 @@
         <v>368</v>
       </c>
       <c r="B332" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="C332" s="3" t="s">
-        <v>942</v>
-      </c>
       <c r="D332" s="27" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E332" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -13063,16 +13160,16 @@
         <v>369</v>
       </c>
       <c r="B333" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="C333" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="C333" s="11" t="s">
+      <c r="D333" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E333" s="18" t="s">
         <v>944</v>
-      </c>
-      <c r="D333" s="14" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E333" s="18" t="s">
-        <v>945</v>
       </c>
       <c r="F333" s="63"/>
     </row>
@@ -13081,16 +13178,16 @@
         <v>370</v>
       </c>
       <c r="B334" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="D334" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E334" s="19" t="s">
         <v>947</v>
-      </c>
-      <c r="D334" s="13" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E334" s="19" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13098,14 +13195,14 @@
         <v>371</v>
       </c>
       <c r="B335" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>950</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>951</v>
       </c>
       <c r="D335" s="26"/>
       <c r="E335" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -13113,16 +13210,16 @@
         <v>216</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="D336" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E336" s="19" t="s">
         <v>542</v>
-      </c>
-      <c r="D336" s="13" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E336" s="19" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -13130,16 +13227,16 @@
         <v>217</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E337" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -13153,10 +13250,10 @@
         <v>163</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E338" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -13164,16 +13261,16 @@
         <v>219</v>
       </c>
       <c r="B339" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C339" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="D339" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E339" s="19" t="s">
         <v>548</v>
-      </c>
-      <c r="D339" s="13" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E339" s="19" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="340" spans="1:6" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -13181,16 +13278,16 @@
         <v>211</v>
       </c>
       <c r="B340" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="C340" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C340" s="33" t="s">
+      <c r="D340" s="34" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E340" s="35" t="s">
         <v>530</v>
-      </c>
-      <c r="D340" s="34" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E340" s="35" t="s">
-        <v>531</v>
       </c>
       <c r="F340" s="64"/>
     </row>
@@ -13199,16 +13296,16 @@
         <v>212</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C341" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="D341" s="14" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E341" s="18" t="s">
         <v>532</v>
-      </c>
-      <c r="D341" s="14" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E341" s="18" t="s">
-        <v>533</v>
       </c>
       <c r="F341" s="63"/>
     </row>
@@ -13217,16 +13314,16 @@
         <v>213</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>240</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E342" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F342" s="63"/>
     </row>
@@ -13235,16 +13332,16 @@
         <v>214</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E343" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13252,16 +13349,16 @@
         <v>215</v>
       </c>
       <c r="B344" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D344" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E344" s="19" t="s">
         <v>538</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D344" s="13" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E344" s="19" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
@@ -13269,16 +13366,16 @@
         <v>220</v>
       </c>
       <c r="B345" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C345" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C345" s="3" t="s">
-        <v>552</v>
-      </c>
       <c r="D345" s="39" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E345" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -13286,16 +13383,16 @@
         <v>379</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E346" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -13303,16 +13400,16 @@
         <v>380</v>
       </c>
       <c r="B347" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="D347" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E347" s="19" t="s">
         <v>976</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="D347" s="13" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E347" s="19" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="348" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13320,16 +13417,16 @@
         <v>377</v>
       </c>
       <c r="B348" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="C348" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="C348" s="11" t="s">
+      <c r="D348" s="14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E348" s="18" t="s">
         <v>967</v>
-      </c>
-      <c r="D348" s="14" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E348" s="18" t="s">
-        <v>968</v>
       </c>
       <c r="F348" s="63"/>
     </row>
@@ -13338,16 +13435,16 @@
         <v>378</v>
       </c>
       <c r="B349" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="C349" s="11" t="s">
         <v>970</v>
       </c>
-      <c r="C349" s="11" t="s">
-        <v>971</v>
-      </c>
       <c r="D349" s="14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E349" s="18" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F349" s="63"/>
     </row>
@@ -13356,16 +13453,16 @@
         <v>221</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="D350" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E350" s="19" t="s">
         <v>554</v>
-      </c>
-      <c r="D350" s="13" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E350" s="19" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -13376,13 +13473,13 @@
         <v>181</v>
       </c>
       <c r="C351" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D351" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E351" s="19" t="s">
         <v>573</v>
-      </c>
-      <c r="D351" s="13" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E351" s="19" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="352" spans="1:6" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -13390,16 +13487,16 @@
         <v>222</v>
       </c>
       <c r="B352" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="C352" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="D352" s="34" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E352" s="35" t="s">
         <v>557</v>
-      </c>
-      <c r="C352" s="33" t="s">
-        <v>559</v>
-      </c>
-      <c r="D352" s="34" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E352" s="35" t="s">
-        <v>558</v>
       </c>
       <c r="F352" s="64"/>
     </row>
@@ -13408,16 +13505,16 @@
         <v>223</v>
       </c>
       <c r="B353" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C353" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="C353" s="11" t="s">
+      <c r="D353" s="14" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E353" s="18" t="s">
         <v>561</v>
-      </c>
-      <c r="D353" s="14" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E353" s="18" t="s">
-        <v>562</v>
       </c>
       <c r="F353" s="63"/>
     </row>
@@ -13426,14 +13523,14 @@
         <v>224</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D354" s="16"/>
       <c r="E354" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13441,16 +13538,16 @@
         <v>225</v>
       </c>
       <c r="B355" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="D355" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E355" s="19" t="s">
         <v>566</v>
-      </c>
-      <c r="D355" s="13" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E355" s="19" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="356" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -13458,16 +13555,16 @@
         <v>226</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D356" s="14" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E356" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F356" s="63"/>
     </row>
@@ -13476,16 +13573,16 @@
         <v>227</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C357" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D357" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E357" s="19" t="s">
         <v>571</v>
-      </c>
-      <c r="D357" s="13" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E357" s="19" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -13493,16 +13590,16 @@
         <v>229</v>
       </c>
       <c r="B358" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D358" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E358" s="19" t="s">
         <v>575</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D358" s="13" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E358" s="19" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -13510,16 +13607,16 @@
         <v>232</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C359" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D359" s="13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E359" s="19" t="s">
         <v>580</v>
-      </c>
-      <c r="D359" s="13" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E359" s="19" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13527,14 +13624,14 @@
         <v>230</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D360" s="16"/>
       <c r="E360" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="361" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -13542,16 +13639,16 @@
         <v>231</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>240</v>
       </c>
       <c r="D361" s="14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E361" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F361" s="63"/>
     </row>
@@ -13560,16 +13657,16 @@
         <v>233</v>
       </c>
       <c r="B362" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D362" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E362" s="19" t="s">
         <v>582</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D362" s="13" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E362" s="19" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="363" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -13577,16 +13674,16 @@
         <v>250</v>
       </c>
       <c r="B363" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C363" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D363" s="14" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E363" s="18" t="s">
         <v>626</v>
-      </c>
-      <c r="C363" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="D363" s="14" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E363" s="18" t="s">
-        <v>627</v>
       </c>
       <c r="F363" s="63"/>
     </row>
@@ -13595,16 +13692,16 @@
         <v>251</v>
       </c>
       <c r="B364" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C364" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="C364" s="11" t="s">
-        <v>631</v>
-      </c>
       <c r="D364" s="14" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E364" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F364" s="63"/>
     </row>
@@ -13613,16 +13710,16 @@
         <v>234</v>
       </c>
       <c r="B365" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="C365" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="C365" s="33" t="s">
+      <c r="D365" s="34" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E365" s="35" t="s">
         <v>586</v>
-      </c>
-      <c r="D365" s="34" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E365" s="35" t="s">
-        <v>587</v>
       </c>
       <c r="F365" s="64"/>
     </row>
@@ -13631,16 +13728,16 @@
         <v>235</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>240</v>
       </c>
       <c r="D366" s="14" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E366" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F366" s="63"/>
     </row>
@@ -13649,14 +13746,14 @@
         <v>236</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D367" s="16"/>
       <c r="E367" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F367" s="69"/>
     </row>
@@ -13665,16 +13762,16 @@
         <v>237</v>
       </c>
       <c r="B368" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D368" s="14" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E368" s="18" t="s">
         <v>592</v>
-      </c>
-      <c r="C368" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="D368" s="14" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E368" s="18" t="s">
-        <v>593</v>
       </c>
       <c r="F368" s="63"/>
     </row>
@@ -13683,16 +13780,16 @@
         <v>238</v>
       </c>
       <c r="B369" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="C369" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="C369" s="33" t="s">
+      <c r="D369" s="34" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E369" s="35" t="s">
         <v>595</v>
-      </c>
-      <c r="D369" s="34" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E369" s="35" t="s">
-        <v>596</v>
       </c>
       <c r="F369" s="64"/>
     </row>
@@ -13704,13 +13801,13 @@
         <v>220</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D370" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E370" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13718,16 +13815,16 @@
         <v>240</v>
       </c>
       <c r="B371" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C371" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="D371" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E371" s="19" t="s">
         <v>600</v>
-      </c>
-      <c r="D371" s="13" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E371" s="19" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13735,16 +13832,16 @@
         <v>241</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D372" s="13">
         <v>27</v>
       </c>
       <c r="E372" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -13755,13 +13852,13 @@
         <v>304</v>
       </c>
       <c r="C373" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D373" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E373" s="19" t="s">
         <v>611</v>
-      </c>
-      <c r="D373" s="13" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E373" s="19" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -13769,16 +13866,16 @@
         <v>245</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D374" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E374" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="375" spans="1:6" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13786,16 +13883,16 @@
         <v>242</v>
       </c>
       <c r="B375" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="C375" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="C375" s="33" t="s">
+      <c r="D375" s="34" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E375" s="35" t="s">
         <v>606</v>
-      </c>
-      <c r="D375" s="34" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E375" s="35" t="s">
-        <v>607</v>
       </c>
       <c r="F375" s="64"/>
     </row>
@@ -13804,16 +13901,16 @@
         <v>243</v>
       </c>
       <c r="B376" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C376" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="C376" s="11" t="s">
+      <c r="D376" s="14" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E376" s="18" t="s">
         <v>609</v>
-      </c>
-      <c r="D376" s="14" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E376" s="18" t="s">
-        <v>610</v>
       </c>
       <c r="F376" s="63"/>
     </row>
@@ -13822,16 +13919,16 @@
         <v>246</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C377" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D377" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E377" s="19" t="s">
         <v>615</v>
-      </c>
-      <c r="D377" s="13" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E377" s="19" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -13839,16 +13936,16 @@
         <v>247</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D378" s="13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E378" s="19" t="s">
         <v>619</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D378" s="13" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E378" s="19" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -13856,16 +13953,16 @@
         <v>248</v>
       </c>
       <c r="B379" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C379" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="D379" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E379" s="19" t="s">
         <v>622</v>
-      </c>
-      <c r="D379" s="13" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E379" s="19" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="380" spans="1:6" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -13873,47 +13970,47 @@
         <v>249</v>
       </c>
       <c r="B380" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="D380" s="14" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E380" s="18" t="s">
         <v>624</v>
-      </c>
-      <c r="C380" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="D380" s="14" t="s">
-        <v>1292</v>
-      </c>
-      <c r="E380" s="18" t="s">
-        <v>625</v>
       </c>
       <c r="F380" s="63"/>
     </row>
     <row r="385" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B385" s="28" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B391" s="29" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" s="31" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>

--- a/eng/SOTD_QuestionAudit_chris.xlsx
+++ b/eng/SOTD_QuestionAudit_chris.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="1596">
   <si>
     <t>Question Number</t>
   </si>
@@ -5546,6 +5546,69 @@
   </si>
   <si>
     <t>01-04-YYYY</t>
+  </si>
+  <si>
+    <t>01-06-YYYY</t>
+  </si>
+  <si>
+    <t>01-07-YYYY</t>
+  </si>
+  <si>
+    <t>01-08-YYYY</t>
+  </si>
+  <si>
+    <t>01-09-YYYY</t>
+  </si>
+  <si>
+    <t>01-10-YYYY</t>
+  </si>
+  <si>
+    <t>01-11-YYYY</t>
+  </si>
+  <si>
+    <t>01-12-YYYY</t>
+  </si>
+  <si>
+    <t>01-13-YYYY</t>
+  </si>
+  <si>
+    <t>01-14-YYYY</t>
+  </si>
+  <si>
+    <t>01-15-YYYY</t>
+  </si>
+  <si>
+    <t>01-16-YYYY</t>
+  </si>
+  <si>
+    <t>01-17-YYYY</t>
+  </si>
+  <si>
+    <t>01-18-YYYY</t>
+  </si>
+  <si>
+    <t>01-19-YYYY</t>
+  </si>
+  <si>
+    <t>01-20-YYYY</t>
+  </si>
+  <si>
+    <t>01-21-YYYY</t>
+  </si>
+  <si>
+    <t>01-22-YYYY</t>
+  </si>
+  <si>
+    <t>01-23-YYYY</t>
+  </si>
+  <si>
+    <t>01-24-YYYY</t>
+  </si>
+  <si>
+    <t>01-25-YYYY</t>
+  </si>
+  <si>
+    <t>01-26-YYYY</t>
   </si>
 </sst>
 </file>
@@ -6679,8 +6742,8 @@
   <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F283" sqref="F283"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12302,6 +12365,9 @@
       <c r="E283" s="19" t="s">
         <v>805</v>
       </c>
+      <c r="F283" s="62" t="s">
+        <v>1575</v>
+      </c>
     </row>
     <row r="284" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="10">
@@ -12319,7 +12385,9 @@
       <c r="E284" s="18" t="s">
         <v>806</v>
       </c>
-      <c r="F284" s="63"/>
+      <c r="F284" s="63" t="s">
+        <v>1576</v>
+      </c>
     </row>
     <row r="285" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="10">
@@ -12337,7 +12405,9 @@
       <c r="E285" s="18" t="s">
         <v>807</v>
       </c>
-      <c r="F285" s="63"/>
+      <c r="F285" s="63" t="s">
+        <v>1577</v>
+      </c>
     </row>
     <row r="286" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="10">
@@ -12355,7 +12425,9 @@
       <c r="E286" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="F286" s="63"/>
+      <c r="F286" s="63" t="s">
+        <v>1578</v>
+      </c>
     </row>
     <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
@@ -12372,6 +12444,9 @@
       </c>
       <c r="E287" s="19" t="s">
         <v>809</v>
+      </c>
+      <c r="F287" s="62" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -12386,6 +12461,9 @@
       <c r="E288" s="24" t="s">
         <v>793</v>
       </c>
+      <c r="F288" s="62" t="s">
+        <v>1580</v>
+      </c>
     </row>
     <row r="289" spans="1:6" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="32">
@@ -12403,7 +12481,9 @@
       <c r="E289" s="35" t="s">
         <v>810</v>
       </c>
-      <c r="F289" s="64"/>
+      <c r="F289" s="64" t="s">
+        <v>1581</v>
+      </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
@@ -12421,6 +12501,9 @@
       <c r="E290" s="19" t="s">
         <v>794</v>
       </c>
+      <c r="F290" s="62" t="s">
+        <v>1582</v>
+      </c>
     </row>
     <row r="291" spans="1:6" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="10">
@@ -12438,7 +12521,9 @@
       <c r="E291" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="F291" s="63"/>
+      <c r="F291" s="63" t="s">
+        <v>1583</v>
+      </c>
     </row>
     <row r="292" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="10">
@@ -12456,7 +12541,9 @@
       <c r="E292" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="F292" s="63"/>
+      <c r="F292" s="63" t="s">
+        <v>1584</v>
+      </c>
     </row>
     <row r="293" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="10">
@@ -12474,7 +12561,9 @@
       <c r="E293" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="F293" s="63"/>
+      <c r="F293" s="63" t="s">
+        <v>1585</v>
+      </c>
     </row>
     <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
@@ -12492,6 +12581,9 @@
       <c r="E294" s="19" t="s">
         <v>509</v>
       </c>
+      <c r="F294" s="62" t="s">
+        <v>1586</v>
+      </c>
     </row>
     <row r="295" spans="1:6" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="55">
@@ -12509,7 +12601,9 @@
       <c r="E295" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="F295" s="68"/>
+      <c r="F295" s="68" t="s">
+        <v>1587</v>
+      </c>
     </row>
     <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
@@ -12527,6 +12621,9 @@
       <c r="E296" s="19" t="s">
         <v>500</v>
       </c>
+      <c r="F296" s="62" t="s">
+        <v>1588</v>
+      </c>
     </row>
     <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
@@ -12544,6 +12641,9 @@
       <c r="E297" s="19" t="s">
         <v>813</v>
       </c>
+      <c r="F297" s="62" t="s">
+        <v>1589</v>
+      </c>
     </row>
     <row r="298" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="10">
@@ -12561,7 +12661,9 @@
       <c r="E298" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="F298" s="63"/>
+      <c r="F298" s="63" t="s">
+        <v>1590</v>
+      </c>
     </row>
     <row r="299" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="10">
@@ -12579,7 +12681,9 @@
       <c r="E299" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="F299" s="63"/>
+      <c r="F299" s="63" t="s">
+        <v>1591</v>
+      </c>
     </row>
     <row r="300" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="10">
@@ -12597,7 +12701,9 @@
       <c r="E300" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="F300" s="63"/>
+      <c r="F300" s="63" t="s">
+        <v>1592</v>
+      </c>
     </row>
     <row r="301" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="10">
@@ -12615,7 +12721,9 @@
       <c r="E301" s="18" t="s">
         <v>817</v>
       </c>
-      <c r="F301" s="63"/>
+      <c r="F301" s="63" t="s">
+        <v>1593</v>
+      </c>
     </row>
     <row r="302" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="10">
@@ -12633,7 +12741,9 @@
       <c r="E302" s="18" t="s">
         <v>818</v>
       </c>
-      <c r="F302" s="63"/>
+      <c r="F302" s="63" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="303" spans="1:6" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="22">
@@ -12649,7 +12759,9 @@
       <c r="E303" s="24" t="s">
         <v>819</v>
       </c>
-      <c r="F303" s="66"/>
+      <c r="F303" s="66" t="s">
+        <v>1595</v>
+      </c>
     </row>
     <row r="304" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="1">

--- a/eng/SOTD_QuestionAudit_chris.xlsx
+++ b/eng/SOTD_QuestionAudit_chris.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="1596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1606">
   <si>
     <t>Question Number</t>
   </si>
@@ -5609,6 +5608,36 @@
   </si>
   <si>
     <t>01-26-YYYY</t>
+  </si>
+  <si>
+    <t>01-27-YYYY</t>
+  </si>
+  <si>
+    <t>01-28-YYYY</t>
+  </si>
+  <si>
+    <t>01-29-YYYY</t>
+  </si>
+  <si>
+    <t>01-30-YYYY</t>
+  </si>
+  <si>
+    <t>01-31-YYYY</t>
+  </si>
+  <si>
+    <t>02-01-YYYY</t>
+  </si>
+  <si>
+    <t>02-02-YYYY</t>
+  </si>
+  <si>
+    <t>02-03-YYYY</t>
+  </si>
+  <si>
+    <t>02-04-YYYY</t>
+  </si>
+  <si>
+    <t>02-05-YYYY</t>
   </si>
 </sst>
 </file>
@@ -6742,8 +6771,8 @@
   <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F303" sqref="F303"/>
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D314" sqref="D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12779,6 +12808,9 @@
       <c r="E304" s="19" t="s">
         <v>820</v>
       </c>
+      <c r="F304" s="62" t="s">
+        <v>1596</v>
+      </c>
     </row>
     <row r="305" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
@@ -12796,6 +12828,9 @@
       <c r="E305" s="19" t="s">
         <v>821</v>
       </c>
+      <c r="F305" s="62" t="s">
+        <v>1597</v>
+      </c>
     </row>
     <row r="306" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A306" s="10">
@@ -12813,7 +12848,9 @@
       <c r="E306" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="F306" s="63"/>
+      <c r="F306" s="63" t="s">
+        <v>1598</v>
+      </c>
     </row>
     <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
@@ -12831,6 +12868,9 @@
       <c r="E307" s="19" t="s">
         <v>812</v>
       </c>
+      <c r="F307" s="62" t="s">
+        <v>1599</v>
+      </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
@@ -12848,6 +12888,9 @@
       <c r="E308" s="19" t="s">
         <v>516</v>
       </c>
+      <c r="F308" s="62" t="s">
+        <v>1600</v>
+      </c>
     </row>
     <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
@@ -12865,6 +12908,9 @@
       <c r="E309" s="19" t="s">
         <v>519</v>
       </c>
+      <c r="F309" s="62" t="s">
+        <v>1601</v>
+      </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
@@ -12882,6 +12928,9 @@
       <c r="E310" s="19" t="s">
         <v>521</v>
       </c>
+      <c r="F310" s="62" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
@@ -12899,6 +12948,9 @@
       <c r="E311" s="19" t="s">
         <v>522</v>
       </c>
+      <c r="F311" s="62" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="312" spans="1:6" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
@@ -12916,7 +12968,9 @@
       <c r="E312" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="F312" s="62"/>
+      <c r="F312" s="62" t="s">
+        <v>1604</v>
+      </c>
     </row>
     <row r="313" spans="1:6" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A313" s="32">
@@ -12934,7 +12988,9 @@
       <c r="E313" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="F313" s="64"/>
+      <c r="F313" s="64" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="314" spans="1:6" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A314" s="10">

--- a/eng/SOTD_QuestionAudit_chris.xlsx
+++ b/eng/SOTD_QuestionAudit_chris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="120" windowWidth="18750" windowHeight="12525"/>
+    <workbookView xWindow="-15" yWindow="180" windowWidth="18750" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1620">
   <si>
     <t>Question Number</t>
   </si>
@@ -5638,6 +5638,48 @@
   </si>
   <si>
     <t>02-05-YYYY</t>
+  </si>
+  <si>
+    <t>02-06-YYYY</t>
+  </si>
+  <si>
+    <t>02-07-YYYY</t>
+  </si>
+  <si>
+    <t>02-08-YYYY</t>
+  </si>
+  <si>
+    <t>02-09-YYYY</t>
+  </si>
+  <si>
+    <t>02-10-YYYY</t>
+  </si>
+  <si>
+    <t>02-11-YYYY</t>
+  </si>
+  <si>
+    <t>02-12-YYYY</t>
+  </si>
+  <si>
+    <t>02-13-YYYY</t>
+  </si>
+  <si>
+    <t>02-14-YYYY</t>
+  </si>
+  <si>
+    <t>02-15-YYYY</t>
+  </si>
+  <si>
+    <t>02-16-YYYY</t>
+  </si>
+  <si>
+    <t>02-17-YYYY</t>
+  </si>
+  <si>
+    <t>02-18-YYYY</t>
+  </si>
+  <si>
+    <t>02-19-YYYY</t>
   </si>
 </sst>
 </file>
@@ -6771,8 +6813,8 @@
   <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D314" sqref="D314"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D329" sqref="D329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13008,7 +13050,9 @@
       <c r="E314" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="F314" s="63"/>
+      <c r="F314" s="63" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
@@ -13026,6 +13070,9 @@
       <c r="E315" s="19" t="s">
         <v>526</v>
       </c>
+      <c r="F315" s="62" t="s">
+        <v>1607</v>
+      </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
@@ -13043,6 +13090,9 @@
       <c r="E316" s="19" t="s">
         <v>527</v>
       </c>
+      <c r="F316" s="62" t="s">
+        <v>1608</v>
+      </c>
     </row>
     <row r="317" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
@@ -13060,6 +13110,9 @@
       <c r="E317" s="19" t="s">
         <v>825</v>
       </c>
+      <c r="F317" s="62" t="s">
+        <v>1609</v>
+      </c>
     </row>
     <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
@@ -13077,6 +13130,9 @@
       <c r="E318" s="19" t="s">
         <v>826</v>
       </c>
+      <c r="F318" s="62" t="s">
+        <v>1610</v>
+      </c>
     </row>
     <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
@@ -13094,6 +13150,9 @@
       <c r="E319" s="19" t="s">
         <v>827</v>
       </c>
+      <c r="F319" s="62" t="s">
+        <v>1611</v>
+      </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
@@ -13111,6 +13170,9 @@
       <c r="E320" s="19" t="s">
         <v>930</v>
       </c>
+      <c r="F320" s="62" t="s">
+        <v>1612</v>
+      </c>
     </row>
     <row r="321" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
@@ -13128,7 +13190,9 @@
       <c r="E321" s="19" t="s">
         <v>931</v>
       </c>
-      <c r="F321" s="62"/>
+      <c r="F321" s="62" t="s">
+        <v>1613</v>
+      </c>
     </row>
     <row r="322" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10">
@@ -13146,7 +13210,9 @@
       <c r="E322" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="F322" s="63"/>
+      <c r="F322" s="63" t="s">
+        <v>1614</v>
+      </c>
     </row>
     <row r="323" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
@@ -13164,6 +13230,9 @@
       <c r="E323" s="19" t="s">
         <v>938</v>
       </c>
+      <c r="F323" s="62" t="s">
+        <v>1614</v>
+      </c>
     </row>
     <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
@@ -13181,6 +13250,9 @@
       <c r="E324" s="19" t="s">
         <v>822</v>
       </c>
+      <c r="F324" s="62" t="s">
+        <v>1615</v>
+      </c>
     </row>
     <row r="325" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10">
@@ -13198,7 +13270,9 @@
       <c r="E325" s="18" t="s">
         <v>823</v>
       </c>
-      <c r="F325" s="63"/>
+      <c r="F325" s="63" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="326" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
@@ -13216,6 +13290,9 @@
       <c r="E326" s="19" t="s">
         <v>824</v>
       </c>
+      <c r="F326" s="62" t="s">
+        <v>1617</v>
+      </c>
     </row>
     <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
@@ -13233,6 +13310,9 @@
       <c r="E327" s="19" t="s">
         <v>952</v>
       </c>
+      <c r="F327" s="62" t="s">
+        <v>1618</v>
+      </c>
     </row>
     <row r="328" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="10">
@@ -13250,7 +13330,9 @@
       <c r="E328" s="18" t="s">
         <v>953</v>
       </c>
-      <c r="F328" s="63"/>
+      <c r="F328" s="63" t="s">
+        <v>1619</v>
+      </c>
     </row>
     <row r="329" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="10">

--- a/eng/SOTD_QuestionAudit_chris.xlsx
+++ b/eng/SOTD_QuestionAudit_chris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="180" windowWidth="18750" windowHeight="12465"/>
+    <workbookView xWindow="-15" yWindow="240" windowWidth="18750" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1635">
   <si>
     <t>Question Number</t>
   </si>
@@ -5680,6 +5680,51 @@
   </si>
   <si>
     <t>02-19-YYYY</t>
+  </si>
+  <si>
+    <t>02-20-YYYY</t>
+  </si>
+  <si>
+    <t>02-21-YYYY</t>
+  </si>
+  <si>
+    <t>02-22-YYYY</t>
+  </si>
+  <si>
+    <t>02-23-YYYY</t>
+  </si>
+  <si>
+    <t>02-24-YYYY</t>
+  </si>
+  <si>
+    <t>02-25-YYYY</t>
+  </si>
+  <si>
+    <t>02-26-YYYY</t>
+  </si>
+  <si>
+    <t>02-27-YYYY</t>
+  </si>
+  <si>
+    <t>02-28-YYYY'</t>
+  </si>
+  <si>
+    <t>03-01-YYYY</t>
+  </si>
+  <si>
+    <t>03-02-YYYY</t>
+  </si>
+  <si>
+    <t>03-03-YYYY</t>
+  </si>
+  <si>
+    <t>03-04-YYYY</t>
+  </si>
+  <si>
+    <t>03-05-YYYY</t>
+  </si>
+  <si>
+    <t>03-06-YYYY</t>
   </si>
 </sst>
 </file>
@@ -6813,8 +6858,8 @@
   <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D329" sqref="D329"/>
+      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F343" sqref="F343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13350,7 +13395,9 @@
       <c r="E329" s="18" t="s">
         <v>958</v>
       </c>
-      <c r="F329" s="63"/>
+      <c r="F329" s="63" t="s">
+        <v>1620</v>
+      </c>
     </row>
     <row r="330" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="10">
@@ -13368,7 +13415,9 @@
       <c r="E330" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="F330" s="63"/>
+      <c r="F330" s="63" t="s">
+        <v>1621</v>
+      </c>
     </row>
     <row r="331" spans="1:6" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A331" s="10">
@@ -13386,7 +13435,9 @@
       <c r="E331" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="F331" s="63"/>
+      <c r="F331" s="63" t="s">
+        <v>1622</v>
+      </c>
     </row>
     <row r="332" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
@@ -13404,6 +13455,9 @@
       <c r="E332" s="19" t="s">
         <v>939</v>
       </c>
+      <c r="F332" s="62" t="s">
+        <v>1623</v>
+      </c>
     </row>
     <row r="333" spans="1:6" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A333" s="10">
@@ -13421,7 +13475,9 @@
       <c r="E333" s="18" t="s">
         <v>944</v>
       </c>
-      <c r="F333" s="63"/>
+      <c r="F333" s="63" t="s">
+        <v>1624</v>
+      </c>
     </row>
     <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
@@ -13439,6 +13495,9 @@
       <c r="E334" s="19" t="s">
         <v>947</v>
       </c>
+      <c r="F334" s="62" t="s">
+        <v>1625</v>
+      </c>
     </row>
     <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
@@ -13454,6 +13513,9 @@
       <c r="E335" s="19" t="s">
         <v>948</v>
       </c>
+      <c r="F335" s="62" t="s">
+        <v>1626</v>
+      </c>
     </row>
     <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
@@ -13471,6 +13533,9 @@
       <c r="E336" s="19" t="s">
         <v>542</v>
       </c>
+      <c r="F336" s="62" t="s">
+        <v>1627</v>
+      </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
@@ -13488,6 +13553,9 @@
       <c r="E337" s="19" t="s">
         <v>543</v>
       </c>
+      <c r="F337" s="62" t="s">
+        <v>1628</v>
+      </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
@@ -13505,6 +13573,9 @@
       <c r="E338" s="19" t="s">
         <v>545</v>
       </c>
+      <c r="F338" s="62" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
@@ -13522,6 +13593,9 @@
       <c r="E339" s="19" t="s">
         <v>548</v>
       </c>
+      <c r="F339" s="62" t="s">
+        <v>1630</v>
+      </c>
     </row>
     <row r="340" spans="1:6" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A340" s="32">
@@ -13539,7 +13613,9 @@
       <c r="E340" s="35" t="s">
         <v>530</v>
       </c>
-      <c r="F340" s="64"/>
+      <c r="F340" s="64" t="s">
+        <v>1631</v>
+      </c>
     </row>
     <row r="341" spans="1:6" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="10">
@@ -13557,7 +13633,9 @@
       <c r="E341" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="F341" s="63"/>
+      <c r="F341" s="63" t="s">
+        <v>1632</v>
+      </c>
     </row>
     <row r="342" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A342" s="10">
@@ -13575,7 +13653,9 @@
       <c r="E342" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="F342" s="63"/>
+      <c r="F342" s="63" t="s">
+        <v>1633</v>
+      </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
@@ -13592,6 +13672,9 @@
       </c>
       <c r="E343" s="19" t="s">
         <v>535</v>
+      </c>
+      <c r="F343" s="62" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.25">

--- a/eng/SOTD_QuestionAudit_chris.xlsx
+++ b/eng/SOTD_QuestionAudit_chris.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="1651">
   <si>
     <t>Question Number</t>
   </si>
@@ -5725,6 +5726,54 @@
   </si>
   <si>
     <t>03-06-YYYY</t>
+  </si>
+  <si>
+    <t>03-07-YYYY</t>
+  </si>
+  <si>
+    <t>03-08-YYYY</t>
+  </si>
+  <si>
+    <t>03-09-YYYY</t>
+  </si>
+  <si>
+    <t>03-10-YYYY</t>
+  </si>
+  <si>
+    <t>03-11-YYYY</t>
+  </si>
+  <si>
+    <t>03-12-YYYY</t>
+  </si>
+  <si>
+    <t>3-13-YYYY</t>
+  </si>
+  <si>
+    <t>03-14-YYYY</t>
+  </si>
+  <si>
+    <t>03-15-YYYY</t>
+  </si>
+  <si>
+    <t>03-16-YYYY</t>
+  </si>
+  <si>
+    <t>03-17-YYYY</t>
+  </si>
+  <si>
+    <t>03-18-YYYY</t>
+  </si>
+  <si>
+    <t>03-19-YYYY</t>
+  </si>
+  <si>
+    <t>03-20-YYYY</t>
+  </si>
+  <si>
+    <t>03-21-YYYY</t>
+  </si>
+  <si>
+    <t>03-22-YYYY</t>
   </si>
 </sst>
 </file>
@@ -6858,8 +6907,8 @@
   <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F343" sqref="F343"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F359" sqref="F359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13693,6 +13742,9 @@
       <c r="E344" s="19" t="s">
         <v>538</v>
       </c>
+      <c r="F344" s="62" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="345" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
@@ -13710,6 +13762,9 @@
       <c r="E345" s="19" t="s">
         <v>549</v>
       </c>
+      <c r="F345" s="62" t="s">
+        <v>1636</v>
+      </c>
     </row>
     <row r="346" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
@@ -13727,6 +13782,9 @@
       <c r="E346" s="19" t="s">
         <v>971</v>
       </c>
+      <c r="F346" s="62" t="s">
+        <v>1637</v>
+      </c>
     </row>
     <row r="347" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
@@ -13744,24 +13802,29 @@
       <c r="E347" s="19" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A348" s="10">
+      <c r="F347" s="62" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A348" s="55">
         <v>377</v>
       </c>
-      <c r="B348" s="11" t="s">
+      <c r="B348" s="56" t="s">
         <v>965</v>
       </c>
-      <c r="C348" s="11" t="s">
+      <c r="C348" s="56" t="s">
         <v>966</v>
       </c>
-      <c r="D348" s="14" t="s">
+      <c r="D348" s="57" t="s">
         <v>1061</v>
       </c>
-      <c r="E348" s="18" t="s">
+      <c r="E348" s="58" t="s">
         <v>967</v>
       </c>
-      <c r="F348" s="63"/>
+      <c r="F348" s="68" t="s">
+        <v>1639</v>
+      </c>
     </row>
     <row r="349" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="10">
@@ -13779,7 +13842,9 @@
       <c r="E349" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="F349" s="63"/>
+      <c r="F349" s="63" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="350" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
@@ -13797,6 +13862,9 @@
       <c r="E350" s="19" t="s">
         <v>554</v>
       </c>
+      <c r="F350" s="62" t="s">
+        <v>1641</v>
+      </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
@@ -13814,6 +13882,9 @@
       <c r="E351" s="19" t="s">
         <v>573</v>
       </c>
+      <c r="F351" s="62" t="s">
+        <v>1642</v>
+      </c>
     </row>
     <row r="352" spans="1:6" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A352" s="32">
@@ -13831,7 +13902,9 @@
       <c r="E352" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="F352" s="64"/>
+      <c r="F352" s="64" t="s">
+        <v>1643</v>
+      </c>
     </row>
     <row r="353" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A353" s="10">
@@ -13849,7 +13922,9 @@
       <c r="E353" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="F353" s="63"/>
+      <c r="F353" s="63" t="s">
+        <v>1644</v>
+      </c>
     </row>
     <row r="354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="7">
@@ -13865,6 +13940,9 @@
       <c r="E354" s="20" t="s">
         <v>562</v>
       </c>
+      <c r="F354" s="62" t="s">
+        <v>1645</v>
+      </c>
     </row>
     <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
@@ -13882,6 +13960,9 @@
       <c r="E355" s="19" t="s">
         <v>566</v>
       </c>
+      <c r="F355" s="62" t="s">
+        <v>1646</v>
+      </c>
     </row>
     <row r="356" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A356" s="10">
@@ -13899,7 +13980,9 @@
       <c r="E356" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="F356" s="63"/>
+      <c r="F356" s="63" t="s">
+        <v>1647</v>
+      </c>
     </row>
     <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
@@ -13917,6 +14000,9 @@
       <c r="E357" s="19" t="s">
         <v>571</v>
       </c>
+      <c r="F357" s="62" t="s">
+        <v>1648</v>
+      </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
@@ -13934,6 +14020,9 @@
       <c r="E358" s="19" t="s">
         <v>575</v>
       </c>
+      <c r="F358" s="62" t="s">
+        <v>1649</v>
+      </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
@@ -13950,6 +14039,9 @@
       </c>
       <c r="E359" s="19" t="s">
         <v>580</v>
+      </c>
+      <c r="F359" s="62" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.25">
